--- a/data.xlsx
+++ b/data.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,9 +437,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9.6" customWidth="1" min="1" max="1"/>
-    <col width="13.2" customWidth="1" min="2" max="2"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="19.2" customWidth="1" min="4" max="4"/>
+    <col width="10.8" customWidth="1" min="4" max="4"/>
     <col width="9.6" customWidth="1" min="5" max="5"/>
     <col width="9.6" customWidth="1" min="6" max="6"/>
   </cols>
@@ -478,21 +478,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>5049</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SDVSDVSDV</t>
+          <t>ЦУАЙ</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>+79501346800</t>
+          <t>+76854949444</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>+200</t>
+          <t>+цуа</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -501,136 +501,6 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>5050</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>JSJDJDJD</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>+79995352437</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>+200l(ბარათით)</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>6666</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>ASCASCAS</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>+79501346800</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>+ascasc</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>6667</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>EFWEFWE</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>+79501346800</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>+fwefwef</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>6668</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>FWEFWEFW</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>+79191011173</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>+efwef</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>6669</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>WEWFEFWEF</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>+79231212222</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-qqef</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,9 +437,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9.6" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="33.6" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="10.8" customWidth="1" min="4" max="4"/>
+    <col width="14.4" customWidth="1" min="4" max="4"/>
     <col width="9.6" customWidth="1" min="5" max="5"/>
     <col width="9.6" customWidth="1" min="6" max="6"/>
   </cols>
@@ -478,29 +478,705 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>QWDQWDQW</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>+76854949444</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>-wew</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>ЦУЦАЦУА</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>+71231231</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>ЦЦЩУЬАЦЩШЬ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>+78431212123</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>+цущьша</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>ЙЦВЙВ</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>+76854949444</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-цу</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>WWEWFWIOEFWIJFWOEIFJWEOIFJ</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>+oijweow</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>ЦУЬАЦУАЬЦУЩ</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>+76854949444</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>+цуа</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>ЦУАЙ</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IMOIMOI</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>+76854949444</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-momef</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>WEFWEFF</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>+73848385493</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-wef</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>SISWEWFOI</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>+73848385493</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>+oqwemf</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>WEQEF</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>+76854949441</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>+qwef</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>EERGERGE</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>+75555555555</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-weg</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>FWGWEG</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>+75555555555</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-qwqwefq</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>WEWEG</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>+74444444444</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-wewf</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>QQEWEQWF</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>+71111111111</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>+wewf</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>QEFQFW</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>+73333333333</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>+weef</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>WEWQEFQ</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>+75555555555</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>+WEF</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>WEFQWEF</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>+71111111111</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>+QEWF</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>WEFQWEQFQ</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>+71231212123</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>+WEFEF</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>АПЦУП</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>+71231212123</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>+цуа</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>WEGG</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>+71231212122</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-qwf</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>SWG</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>+71231212123</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>+qf</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>ЦУПЦУП</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>+71222222123</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-100l</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>ВАЬИТОПТТ</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>+70544545455</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>+500l</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>WEFJEFIJQWOEJFOIJ</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>+71231231231</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>-oewmroigm</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>ELJ;FNJFVN;K</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>+71231212123</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>-pwew</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>ALEKSANDRE MATARADZE</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>+79121212122</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>+200l</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>ALEKSANDRE MATARADZE</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>+79211212222</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>+200</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,9 +437,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9.6" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="10.8" customWidth="1" min="4" max="4"/>
+    <col width="14.4" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="9.6" customWidth="1" min="5" max="5"/>
     <col width="9.6" customWidth="1" min="6" max="6"/>
   </cols>
@@ -482,17 +482,17 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>KJJKJ</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>kjkjjkj</t>
+          <t>+99557118176</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>+jkj</t>
+          <t>+ 9 GEL💳</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -508,22 +508,22 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>KJJKJ</t>
+          <t>MIA KHALFA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>kjkjjkj</t>
+          <t>+71231212222</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>+jkj</t>
+          <t>- 70 USD</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>S.P.B</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr"/>
@@ -534,17 +534,17 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>KJJKJ</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>kjkjjkj</t>
+          <t>+7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>+jkj</t>
+          <t>+ 7 RUB💳</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -560,17 +560,17 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>KJJKJ</t>
+          <t>80809098</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>kjkjjkj</t>
+          <t>+8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>+jkj</t>
+          <t>- 8 RUB</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -579,32 +579,6 @@
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>KJJKJ</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>kjkjjkj</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>+jkj</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,9 +437,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9.6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="10.8" customWidth="1" min="4" max="4"/>
     <col width="9.6" customWidth="1" min="5" max="5"/>
     <col width="9.6" customWidth="1" min="6" max="6"/>
   </cols>
@@ -477,108 +477,32 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>+99557118176</t>
+          <t>4401023</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>+ 9 GEL💳</t>
+          <t>- 4 RUB</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>S.P.B</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>MIA KHALFA</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>+71231212222</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>- 70 USD</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>+ 7 RUB💳</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>80809098</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>- 8 RUB</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -439,7 +439,7 @@
     <col width="9.6" customWidth="1" min="1" max="1"/>
     <col width="10.8" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="10.8" customWidth="1" min="4" max="4"/>
+    <col width="14.4" customWidth="1" min="4" max="4"/>
     <col width="9.6" customWidth="1" min="5" max="5"/>
     <col width="9.6" customWidth="1" min="6" max="6"/>
   </cols>
@@ -479,27 +479,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>4401023</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>- 4 RUB</t>
+          <t>+ 111 EUR💳</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>S.P.B</t>
+          <t>Moscow</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
